--- a/FashionShop/src/main/webapp/resources/excel/myskill.xlsx
+++ b/FashionShop/src/main/webapp/resources/excel/myskill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\korea_workspace\FashionShop\src\main\webapp\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5718ED4C-3EAC-4D29-8C16-E3E4C5DEA1C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DDF2BA-C436-41A1-992A-BFDA6F414F27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="450" windowWidth="25440" windowHeight="15990" xr2:uid="{FB639B6F-75FA-4BF9-97D0-732FBFF48800}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>javascript &amp; Jquery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,86 +441,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEACB5EA-3D96-4E64-BE91-8354D9E39758}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
